--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T14:58:01+00:00</t>
+    <t>2025-06-13T10:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1059,6 +1059,9 @@
     <t>Slot.serviceType:referencecpts.extension</t>
   </si>
   <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5</t>
   </si>
   <si>
@@ -1072,9 +1075,6 @@
   </si>
   <si>
     <t>Slot.serviceType.extension.extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.url</t>
@@ -7290,7 +7290,7 @@
         <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -7302,13 +7302,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>265</v>
+        <v>105</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>266</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>261</v>
@@ -7496,10 +7496,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7605,10 +7605,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7637,7 +7637,7 @@
         <v>266</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T10:40:28+00:00</t>
+    <t>2025-06-17T13:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-17T13:53:20+00:00</t>
+    <t>2025-06-18T12:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T12:49:42+00:00</t>
+    <t>2025-06-19T12:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:31:56+00:00</t>
+    <t>2025-06-19T12:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:56:09+00:00</t>
+    <t>2025-06-19T13:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T13:39:18+00:00</t>
+    <t>2025-06-20T10:31:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T10:31:38+00:00</t>
+    <t>2025-06-20T12:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:06:52+00:00</t>
+    <t>2025-06-20T16:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:26:05+00:00</t>
+    <t>2025-06-23T15:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T15:53:38+00:00</t>
+    <t>2025-06-25T07:29:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T07:29:13+00:00</t>
+    <t>2025-06-25T08:20:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T08:20:21+00:00</t>
+    <t>2025-07-01T07:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T07:34:24+00:00</t>
+    <t>2025-07-01T14:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T14:16:04+00:00</t>
+    <t>2025-07-01T15:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T15:09:42+00:00</t>
+    <t>2025-07-09T16:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T16:03:26+00:00</t>
+    <t>2025-08-18T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:46:32+00:00</t>
+    <t>2025-08-19T13:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T13:46:05+00:00</t>
+    <t>2025-08-19T14:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T14:52:01+00:00</t>
+    <t>2025-08-22T10:17:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T10:17:30+00:00</t>
+    <t>2025-08-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T12:56:47+00:00</t>
+    <t>2025-08-22T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:23:20+00:00</t>
+    <t>2025-08-22T14:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T14:29:38+00:00</t>
+    <t>2025-08-22T15:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T15:03:40+00:00</t>
+    <t>2025-08-22T16:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T16:11:41+00:00</t>
+    <t>2025-08-25T06:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T06:59:32+00:00</t>
+    <t>2025-08-25T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T09:39:34+00:00</t>
+    <t>2025-08-25T11:15:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T11:15:03+00:00</t>
+    <t>2025-08-26T14:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:01:05+00:00</t>
+    <t>2025-08-26T14:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:47:20+00:00</t>
+    <t>2025-08-26T15:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T15:19:13+00:00</t>
+    <t>2025-08-28T09:04:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T09:04:45+00:00</t>
+    <t>2025-08-28T13:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:33:26+00:00</t>
+    <t>2025-08-28T13:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:53:19+00:00</t>
+    <t>2025-08-29T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T14:53:04+00:00</t>
+    <t>2025-09-02T14:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:06:24+00:00</t>
+    <t>2025-09-02T14:14:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:14:48+00:00</t>
+    <t>2025-09-02T15:31:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T15:31:32+00:00</t>
+    <t>2025-09-02T16:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T16:40:07+00:00</t>
+    <t>2025-09-03T15:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T15:56:47+00:00</t>
+    <t>2025-09-03T16:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T16:17:34+00:00</t>
+    <t>2025-09-04T08:14:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:14:53+00:00</t>
+    <t>2025-09-04T08:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:29:09+00:00</t>
+    <t>2025-09-04T13:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:01:54+00:00</t>
+    <t>2025-09-04T13:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:30:13+00:00</t>
+    <t>2025-09-04T16:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T16:12:35+00:00</t>
+    <t>2025-09-08T10:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:20:18+00:00</t>
+    <t>2025-09-08T13:03:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:03:11+00:00</t>
+    <t>2025-09-08T13:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:31:50+00:00</t>
+    <t>2025-09-09T08:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
